--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema4d-Met.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema4d-Met.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>68.50681433333334</v>
+        <v>0.2115286666666667</v>
       </c>
       <c r="H2">
-        <v>205.520443</v>
+        <v>0.634586</v>
       </c>
       <c r="I2">
-        <v>0.9663865053086182</v>
+        <v>0.08153347995807345</v>
       </c>
       <c r="J2">
-        <v>0.9663865053086185</v>
+        <v>0.08153347995807345</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.254050666666667</v>
+        <v>0.140567</v>
       </c>
       <c r="N2">
-        <v>6.762152</v>
+        <v>0.421701</v>
       </c>
       <c r="O2">
-        <v>0.5759961839619929</v>
+        <v>0.07810038533383065</v>
       </c>
       <c r="P2">
-        <v>0.575996183961993</v>
+        <v>0.07810038533383065</v>
       </c>
       <c r="Q2">
-        <v>154.4178305192596</v>
+        <v>0.02973395008733333</v>
       </c>
       <c r="R2">
-        <v>1389.760474673336</v>
+        <v>0.267605550786</v>
       </c>
       <c r="S2">
-        <v>0.5566349392901303</v>
+        <v>0.006367796202333695</v>
       </c>
       <c r="T2">
-        <v>0.5566349392901305</v>
+        <v>0.006367796202333695</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>68.50681433333334</v>
+        <v>0.2115286666666667</v>
       </c>
       <c r="H3">
-        <v>205.520443</v>
+        <v>0.634586</v>
       </c>
       <c r="I3">
-        <v>0.9663865053086182</v>
+        <v>0.08153347995807345</v>
       </c>
       <c r="J3">
-        <v>0.9663865053086185</v>
+        <v>0.08153347995807345</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.161141</v>
       </c>
       <c r="O3">
-        <v>0.01372589688605336</v>
+        <v>0.02984383293631935</v>
       </c>
       <c r="P3">
-        <v>0.01372589688605336</v>
+        <v>0.02984383293631935</v>
       </c>
       <c r="Q3">
-        <v>3.679752189495889</v>
+        <v>0.01136198029177778</v>
       </c>
       <c r="R3">
-        <v>33.117769705463</v>
+        <v>0.102257822626</v>
       </c>
       <c r="S3">
-        <v>0.01326452152393955</v>
+        <v>0.002433271554585486</v>
       </c>
       <c r="T3">
-        <v>0.01326452152393956</v>
+        <v>0.002433271554585486</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>68.50681433333334</v>
+        <v>0.2115286666666667</v>
       </c>
       <c r="H4">
-        <v>205.520443</v>
+        <v>0.634586</v>
       </c>
       <c r="I4">
-        <v>0.9663865053086182</v>
+        <v>0.08153347995807345</v>
       </c>
       <c r="J4">
-        <v>0.9663865053086185</v>
+        <v>0.08153347995807345</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>4.816632</v>
       </c>
       <c r="O4">
-        <v>0.4102779191519537</v>
+        <v>0.8920557817298499</v>
       </c>
       <c r="P4">
-        <v>0.4102779191519537</v>
+        <v>0.8920557817298499</v>
       </c>
       <c r="Q4">
-        <v>109.9907047119974</v>
+        <v>0.3396185815946667</v>
       </c>
       <c r="R4">
-        <v>989.916342407976</v>
+        <v>3.056567234352</v>
       </c>
       <c r="S4">
-        <v>0.3964870444945483</v>
+        <v>0.07273241220115426</v>
       </c>
       <c r="T4">
-        <v>0.3964870444945485</v>
+        <v>0.07273241220115426</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3.685929</v>
       </c>
       <c r="I5">
-        <v>0.01733176511849816</v>
+        <v>0.4735790235655714</v>
       </c>
       <c r="J5">
-        <v>0.01733176511849817</v>
+        <v>0.4735790235655714</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.254050666666667</v>
+        <v>0.140567</v>
       </c>
       <c r="N5">
-        <v>6.762152</v>
+        <v>0.421701</v>
       </c>
       <c r="O5">
-        <v>0.5759961839619929</v>
+        <v>0.07810038533383065</v>
       </c>
       <c r="P5">
-        <v>0.575996183961993</v>
+        <v>0.07810038533383065</v>
       </c>
       <c r="Q5">
-        <v>2.769423573245333</v>
+        <v>0.172706660581</v>
       </c>
       <c r="R5">
-        <v>24.924812159208</v>
+        <v>1.554359945229</v>
       </c>
       <c r="S5">
-        <v>0.009983030569580519</v>
+        <v>0.03698670422649039</v>
       </c>
       <c r="T5">
-        <v>0.009983030569580524</v>
+        <v>0.03698670422649039</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.685929</v>
       </c>
       <c r="I6">
-        <v>0.01733176511849816</v>
+        <v>0.4735790235655714</v>
       </c>
       <c r="J6">
-        <v>0.01733176511849817</v>
+        <v>0.4735790235655714</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.161141</v>
       </c>
       <c r="O6">
-        <v>0.01372589688605336</v>
+        <v>0.02984383293631935</v>
       </c>
       <c r="P6">
-        <v>0.01372589688605336</v>
+        <v>0.02984383293631935</v>
       </c>
       <c r="Q6">
         <v>0.06599492055433333</v>
@@ -818,10 +818,10 @@
         <v>0.5939542849889999</v>
       </c>
       <c r="S6">
-        <v>0.0002378940208698022</v>
+        <v>0.01413341326143616</v>
       </c>
       <c r="T6">
-        <v>0.0002378940208698022</v>
+        <v>0.01413341326143616</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.685929</v>
       </c>
       <c r="I7">
-        <v>0.01733176511849816</v>
+        <v>0.4735790235655714</v>
       </c>
       <c r="J7">
-        <v>0.01733176511849817</v>
+        <v>0.4735790235655714</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>4.816632</v>
       </c>
       <c r="O7">
-        <v>0.4102779191519537</v>
+        <v>0.8920557817298499</v>
       </c>
       <c r="P7">
-        <v>0.4102779191519537</v>
+        <v>0.8920557817298499</v>
       </c>
       <c r="Q7">
         <v>1.972640396792</v>
@@ -880,10 +880,10 @@
         <v>17.753763571128</v>
       </c>
       <c r="S7">
-        <v>0.007110840528047839</v>
+        <v>0.4224589060776448</v>
       </c>
       <c r="T7">
-        <v>0.007110840528047842</v>
+        <v>0.4224589060776448</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>3.462619</v>
       </c>
       <c r="I8">
-        <v>0.01628172957288352</v>
+        <v>0.4448874964763552</v>
       </c>
       <c r="J8">
-        <v>0.01628172957288353</v>
+        <v>0.4448874964763552</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.254050666666667</v>
+        <v>0.140567</v>
       </c>
       <c r="N8">
-        <v>6.762152</v>
+        <v>0.421701</v>
       </c>
       <c r="O8">
-        <v>0.5759961839619929</v>
+        <v>0.07810038533383065</v>
       </c>
       <c r="P8">
-        <v>0.575996183961993</v>
+        <v>0.07810038533383065</v>
       </c>
       <c r="Q8">
-        <v>2.601639555120889</v>
+        <v>0.1622433216576667</v>
       </c>
       <c r="R8">
-        <v>23.414755996088</v>
+        <v>1.460189894919</v>
       </c>
       <c r="S8">
-        <v>0.009378214102282038</v>
+        <v>0.03474588490500657</v>
       </c>
       <c r="T8">
-        <v>0.009378214102282042</v>
+        <v>0.03474588490500657</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>3.462619</v>
       </c>
       <c r="I9">
-        <v>0.01628172957288352</v>
+        <v>0.4448874964763552</v>
       </c>
       <c r="J9">
-        <v>0.01628172957288353</v>
+        <v>0.4448874964763552</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,10 +992,10 @@
         <v>0.161141</v>
       </c>
       <c r="O9">
-        <v>0.01372589688605336</v>
+        <v>0.02984383293631935</v>
       </c>
       <c r="P9">
-        <v>0.01372589688605336</v>
+        <v>0.02984383293631935</v>
       </c>
       <c r="Q9">
         <v>0.06199665425322223</v>
@@ -1004,10 +1004,10 @@
         <v>0.5579698882790001</v>
       </c>
       <c r="S9">
-        <v>0.0002234813412440049</v>
+        <v>0.01327714812029771</v>
       </c>
       <c r="T9">
-        <v>0.0002234813412440049</v>
+        <v>0.01327714812029771</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>3.462619</v>
       </c>
       <c r="I10">
-        <v>0.01628172957288352</v>
+        <v>0.4448874964763552</v>
       </c>
       <c r="J10">
-        <v>0.01628172957288353</v>
+        <v>0.4448874964763552</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>4.816632</v>
       </c>
       <c r="O10">
-        <v>0.4102779191519537</v>
+        <v>0.8920557817298499</v>
       </c>
       <c r="P10">
-        <v>0.4102779191519537</v>
+        <v>0.8920557817298499</v>
       </c>
       <c r="Q10">
         <v>1.853129053245334</v>
@@ -1066,10 +1066,10 @@
         <v>16.678161479208</v>
       </c>
       <c r="S10">
-        <v>0.006680034129357479</v>
+        <v>0.3968644634510509</v>
       </c>
       <c r="T10">
-        <v>0.006680034129357482</v>
+        <v>0.3968644634510509</v>
       </c>
     </row>
   </sheetData>
